--- a/data/case1/5/V1_5.xlsx
+++ b/data/case1/5/V1_5.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999358659353</v>
+        <v>0.9999999903147524</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99444667267277775</v>
+        <v>0.99393559460034719</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.97256177212533079</v>
+        <v>0.97100655283155557</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.96830103302995951</v>
+        <v>0.96434173588988015</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.96113027296701037</v>
+        <v>0.95468548634932704</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.94392074101793821</v>
+        <v>0.93154971137159492</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.94086790344564142</v>
+        <v>0.92862490234993567</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.93744104630085845</v>
+        <v>0.92535009308060212</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.93533104938064615</v>
+        <v>0.92352238969603573</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.93416431648842968</v>
+        <v>0.9226397797478405</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.93256828148535198</v>
+        <v>0.92263451209074354</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.92978858488579763</v>
+        <v>0.91985463138175905</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.91850190946571542</v>
+        <v>0.90856733508727894</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.91433464111994489</v>
+        <v>0.90439999432446783</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.91174319446270435</v>
+        <v>0.90180852627965491</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.90923672627088425</v>
+        <v>0.89930203313715995</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.90552882460368189</v>
+        <v>0.8955941253297397</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.90441991401629851</v>
+        <v>0.89448522743400749</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99171866016948118</v>
+        <v>0.99053880939568972</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.96971008647135992</v>
+        <v>0.98342183263905159</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.96831158198162859</v>
+        <v>0.98202336471122476</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.96704706968255505</v>
+        <v>0.98075886127756917</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.96294679595930832</v>
+        <v>0.95797823363182233</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.94465648335908314</v>
+        <v>0.94495600208926389</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.93819924805814625</v>
+        <v>0.93849879447323215</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.94218596106959662</v>
+        <v>0.9293258677782037</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.94001813408270829</v>
+        <v>0.92647528177515315</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.93081331112422361</v>
+        <v>0.9141153428918789</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.92467431741774253</v>
+        <v>0.90561817739100148</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.92272760695514955</v>
+        <v>0.9024812011756278</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.92667884302683234</v>
+        <v>0.89482795529184544</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.92901951318906573</v>
+        <v>0.89314869487238691</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.93370613045324102</v>
+        <v>0.8926287037802727</v>
       </c>
     </row>
   </sheetData>
